--- a/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY02_ProteomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C8DAE-9C29-4810-B898-3204EE5288BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A9CD63-22B0-461A-8CD8-2E7A57980A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={757FE7E8-89EB-4D39-A36E-5AC04BD97F83}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{757FE7E8-89EB-4D39-A36E-5AC04BD97F83}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Source Name</t>
   </si>
@@ -133,6 +154,132 @@
   </si>
   <si>
     <t>Data File Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</t>
+  </si>
+  <si>
+    <t>Proteomics MassSpec Assay</t>
+  </si>
+  <si>
+    <t>This protocol focuses on the measurement of the mass spectrometer, its settings and all other relevant data related to this.</t>
+  </si>
+  <si>
+    <t>https://github.com/nfdi4plants/SWATE_templates/wiki/3ASY02_ProteomicsMeasurement</t>
+  </si>
+  <si>
+    <t>annotationTableAverageGoose75</t>
+  </si>
+  <si>
+    <t>PRIDE</t>
+  </si>
+  <si>
+    <t>Assay</t>
+  </si>
+  <si>
+    <t>Proteomics</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Mass spectrometry</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
@@ -144,7 +291,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,19 +299,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -173,11 +428,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -254,6 +539,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{874C5A05-F8A4-4EE3-AFC7-1918BB3ABFA8}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,9 +853,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:53:58.91" personId="{874C5A05-F8A4-4EE3-AFC7-1918BB3ABFA8}" id="{757FE7E8-89EB-4D39-A36E-5AC04BD97F83}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:53:58.91" personId="{874C5A05-F8A4-4EE3-AFC7-1918BB3ABFA8}" id="{6F5AA29B-29F4-4DB3-9A12-E752F02E3EA3}" parentId="{757FE7E8-89EB-4D39-A36E-5AC04BD97F83}">
+    <text>id=64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="628" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -764,4 +1066,260 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA011F-5496-4EB2-AF3E-FA3119C26B5A}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableAverageGoose75">
+    <TableValidation DateTime="2021-11-03 16:53" SwateVersion="0.5.1" TableName="annotationTableAverageGoose75" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Experiment type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Quantification method]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [technical replicate]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Variable modification]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [Fixed modification]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [sample volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [injection volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="24" ColumnHeader="Parameter [Number of injections]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [duration]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="35" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89EE264C-FD73-40E5-AADB-5BE2719D1CC3}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY02_ProteomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A9CD63-22B0-461A-8CD8-2E7A57980A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAECC9B-B92E-46A4-86B9-A08546B541D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
   <si>
     <t>Source Name</t>
   </si>
@@ -280,6 +281,90 @@
   </si>
   <si>
     <t>1.1.3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>PRIDE:0000457</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PRIDE_0000457</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>MS:1001808</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001808</t>
+  </si>
+  <si>
+    <t>MS:1000005</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000005</t>
+  </si>
+  <si>
+    <t>Parameter [count unit]</t>
+  </si>
+  <si>
+    <t>UO:0000189</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000189</t>
+  </si>
+  <si>
+    <t>MS:1000031</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000031</t>
+  </si>
+  <si>
+    <t>PATO:0001309</t>
+  </si>
+  <si>
+    <t>PATO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001309</t>
   </si>
 </sst>
 </file>
@@ -291,7 +376,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +391,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -886,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1297,6 +1376,529 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableAverageGoose75">

--- a/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY02_ProteomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAECC9B-B92E-46A4-86B9-A08546B541D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805C07D-2DF0-4E53-B51E-5E69E1C394BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
   <si>
     <t>Source Name</t>
   </si>
@@ -365,6 +374,83 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PATO_0001309</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PRIDE_0000307</t>
+  </si>
+  <si>
+    <t>MTD.experiment_type</t>
+  </si>
+  <si>
+    <t>The current types of the experiment types are listed as CV params below:
+[PRIDE, PRIDE:0000427, Top-down proteomics, ]
+[PRIDE, PRIDE:0000429, Shotgun proteomics, ]
+[PRIDE, PRIDE:0000430, Chemical cross-linking coupled with
+mass spectrometry proteomics, ]
+[PRIDE, PRIDE:0000433, Affinity purification coupled with
+mass spectrometry proteomics, ]
+[PRIDE, PRIDE:0000311, SRM/MRM, ]
+[PRIDE, PRIDE:0000447, SWATH MS, ]
+[PRIDE, PRIDE:0000451, MSE, ]
+[PRIDE, PRIDE:0000452, HDMSE, ]
+[PRIDE, PRIDE:0000453, PAcIFIC, ]
+[PRIDE, PRIDE:0000454, All-ion fragmentation, ]
+[MS, MS:1002521, Mass spectrometry imaging,]</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SME.quantification </t>
+  </si>
+  <si>
+    <t>Controlled vocabulary terms to describe a single quantification technique. PRIDE ontology CV terms are recommended, below are the options:
+[PRIDE, PRIDE:0000318, 18O,]
+[PRIDE, PRIDE:0000320, AQUA,]
+[PRIDE, PRIDE:0000319, ICAT,]
+[PRIDE, PRIDE:0000321, ICPL,]
+[PRIDE, PRIDE:0000315, SILAC,]
+[PRIDE, PRIDE:0000314, TMT,]
+[PRIDE, PRIDE:0000313, iTRAQ,]
+[PRIDE, PRIDE:0000323, TIC,]
+[PRIDE, PRIDE:0000322, emPAI,]
+[PRIDE, PRIDE:0000435, Peptide counting,]
+[PRIDE, PRIDE:0000436, Spectrum counting,]
+[PRIDE, PRIDE:0000437, Protein Abundance Index – PAI,]
+[PRIDE, PRIDE:0000438, Spectrum count/molecular weight,]
+[PRIDE, PRIDE:0000439, Spectral Abundance Factor – SAF,]
+[PRIDE, PRIDE:0000440, Normalized Spectral Abundance Factor – NSAF,]
+[PRIDE, PRIDE:0000441, APEX - Absolute Protein Expression,]</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>MTD.modification</t>
+  </si>
+  <si>
+    <t>Controlled vocabulary term to describe a single modification.
+PSI-MOD and Unimod CV terms are allowed.
+Note: if no modification was reported in the experiment, the CV term
+[PRIDE, PRIDE:0000398, No PTMs are included in the dataset, ]
+must be used.</t>
+  </si>
+  <si>
+    <t>MTD.instrument</t>
+  </si>
+  <si>
+    <t>Controlled vocabulary terms to describe a single instrument model.
+PSI MS ontology CV terms are allowed.
+In case the instrument model is not included in the ontology, then use the
+generic instrument model CV term, [MS, MS:1000031, instrument model,
+CUSTOM NAME], and replace ‘CUSTOM NAME’ with your instrument model
+name.</t>
   </si>
 </sst>
 </file>
@@ -425,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -503,11 +589,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -541,6 +642,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1380,9 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1392,7 +1497,7 @@
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1401,498 +1506,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" t="s">
-        <v>78</v>
-      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY02_ProteomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805C07D-2DF0-4E53-B51E-5E69E1C394BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1902B4-C7E2-4E93-912E-91BB80BBA8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="146">
   <si>
     <t>Source Name</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Oliver</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
   </si>
   <si>
     <t/>
@@ -451,6 +448,90 @@
 generic instrument model CV term, [MS, MS:1000031, instrument model,
 CUSTOM NAME], and replace ‘CUSTOM NAME’ with your instrument model
 name.</t>
+  </si>
+  <si>
+    <t>Top-down proteomics</t>
+  </si>
+  <si>
+    <t>Shotgun proteomics</t>
+  </si>
+  <si>
+    <t>Chemical cross-linking coupled with mass spectrometry proteomics</t>
+  </si>
+  <si>
+    <t>Affinity purification coupled with mass spectrometry proteomics</t>
+  </si>
+  <si>
+    <t>SRM/MRM</t>
+  </si>
+  <si>
+    <t>SWATH MS</t>
+  </si>
+  <si>
+    <t>APEX - Absolute Protein Expression</t>
+  </si>
+  <si>
+    <t>Peptide counting</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>AQUA</t>
+  </si>
+  <si>
+    <t>iTRAQ</t>
+  </si>
+  <si>
+    <t>Spectrum count/molecular weight</t>
+  </si>
+  <si>
+    <t>L-valine removal</t>
+  </si>
+  <si>
+    <t>N-(DNA-1',2'-dideoxyribos-1'-ylidene)-L-valine</t>
+  </si>
+  <si>
+    <t>N-acetyl-L-valine</t>
+  </si>
+  <si>
+    <t>3-(carboxamidomethylthio)propanoylated residue</t>
+  </si>
+  <si>
+    <t>N-acylated residue</t>
+  </si>
+  <si>
+    <t>O-acylated residue</t>
+  </si>
+  <si>
+    <t>5x(13)C,1x(15)N labeled L-valine</t>
+  </si>
+  <si>
+    <t>L-valine amide</t>
+  </si>
+  <si>
+    <t>N-carboxy-L-valine</t>
+  </si>
+  <si>
+    <t>TripleTOF 4600</t>
+  </si>
+  <si>
+    <t>4000 QTRAP</t>
+  </si>
+  <si>
+    <t>6224 Time-of-Flight LC/MS</t>
+  </si>
+  <si>
+    <t>OMEGA</t>
+  </si>
+  <si>
+    <t>amaZon X</t>
+  </si>
+  <si>
+    <t>MAT900XP Trap</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -655,7 +736,7 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
@@ -670,7 +751,7 @@
       <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
@@ -734,8 +815,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E56CB55-4F82-4649-AC03-423543056030}" name="annotationTableAverageGoose75" displayName="annotationTableAverageGoose75" ref="A1:AJ2" totalsRowShown="0">
-  <autoFilter ref="A1:AJ2" xr:uid="{9E56CB55-4F82-4649-AC03-423543056030}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E56CB55-4F82-4649-AC03-423543056030}" name="annotationTableAverageGoose75" displayName="annotationTableAverageGoose75" ref="A1:AJ7" totalsRowShown="0">
+  <autoFilter ref="A1:AJ7" xr:uid="{9E56CB55-4F82-4649-AC03-423543056030}"/>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{8B9EB072-33F4-4925-94A0-B6238A9F1D2E}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{445E8D63-E8B7-45E9-A342-3415BB9DCE17}" name="Parameter [Experiment type]"/>
@@ -761,18 +842,18 @@
     <tableColumn id="23" xr3:uid="{C4646081-5BEA-4168-AE8F-EC37194D2E23}" name="Unit (#2)" dataDxfId="14"/>
     <tableColumn id="24" xr3:uid="{C068DE1E-FC95-4705-9EC5-F0C4BDDF0542}" name="Term Source REF (#2)" dataDxfId="13"/>
     <tableColumn id="25" xr3:uid="{F4B5B5FB-7121-4CE0-977A-FCC07BEADF2E}" name="Term Accession Number (#2)" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{382D1084-6CBD-41CD-8DBC-229E3462D62E}" name="Parameter [Number of injections]" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{6C2D033D-E36D-4BDD-81C0-2B39FC2EA345}" name="Unit (#3)" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{1DB6FF94-FBD2-4CEB-BDE4-FA0EBEB28301}" name="Term Source REF (#3)" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{D0396A6F-CE83-4548-BFF5-69C1DA3AC392}" name="Term Accession Number (#3)" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{40B082B5-697D-459D-9CB7-F7B48A18E4BA}" name="Parameter [instrument model]" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{D88E9C82-D6D9-416E-856B-3C0ED6878092}" name="Term Source REF (MS:1000031)" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{E14D9563-A7B6-40A2-A296-977C598FAD03}" name="Term Accession Number (MS:1000031)" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{67766988-4076-4F34-A37A-2EF393A55DC1}" name="Parameter [duration]" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{02FFA839-AB2E-4256-AF70-683903B0E222}" name="Unit (#4)" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{1DE3AD7A-94C9-4D6D-A620-068505BBA80F}" name="Term Source REF (#4)" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{89607A56-7C4A-4A91-9B9D-E822F9611BED}" name="Term Accession Number (#4)" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{8EFFFFD9-A831-4B22-BB48-207F2316916A}" name="Data File Name" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{382D1084-6CBD-41CD-8DBC-229E3462D62E}" name="Parameter [Number of injections]" dataDxfId="0"/>
+    <tableColumn id="27" xr3:uid="{6C2D033D-E36D-4BDD-81C0-2B39FC2EA345}" name="Unit (#3)" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{1DB6FF94-FBD2-4CEB-BDE4-FA0EBEB28301}" name="Term Source REF (#3)" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{D0396A6F-CE83-4548-BFF5-69C1DA3AC392}" name="Term Accession Number (#3)" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{40B082B5-697D-459D-9CB7-F7B48A18E4BA}" name="Parameter [instrument model]" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{D88E9C82-D6D9-416E-856B-3C0ED6878092}" name="Term Source REF (MS:1000031)" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{E14D9563-A7B6-40A2-A296-977C598FAD03}" name="Term Accession Number (MS:1000031)" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{67766988-4076-4F34-A37A-2EF393A55DC1}" name="Parameter [duration]" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{02FFA839-AB2E-4256-AF70-683903B0E222}" name="Unit (#4)" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{1DE3AD7A-94C9-4D6D-A620-068505BBA80F}" name="Term Source REF (#4)" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{89607A56-7C4A-4A91-9B9D-E822F9611BED}" name="Term Accession Number (#4)" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{8EFFFFD9-A831-4B22-BB48-207F2316916A}" name="Data File Name" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1055,6 +1136,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="630" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -1068,9 +1152,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E6CB68A3-6097-434F-BC45-989D2A92F5CC}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,6 +1319,18 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1233,7 +1339,9 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -1245,6 +1353,186 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1290,7 +1578,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,40 +1795,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1548,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -1570,29 +1858,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -1602,29 +1890,29 @@
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="J4" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -1634,22 +1922,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -1660,27 +1948,27 @@
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="I6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -1690,27 +1978,27 @@
         <v>13</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="I7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -1720,22 +2008,22 @@
         <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -1746,20 +2034,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -1767,25 +2055,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -1796,29 +2084,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="I11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -1828,22 +2116,22 @@
         <v>34</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -1854,13 +2142,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -1879,26 +2167,26 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableAverageGoose75">
-    <TableValidation DateTime="2021-11-03 16:53" SwateVersion="0.5.1" TableName="annotationTableAverageGoose75" Userlist="">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    <TableValidation DateTime="2021-12-13 20:34" SwateVersion="0.5.1" TableName="annotationTableAverageGoose75" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Experiment type]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Quantification method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [technical replicate]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Variable modification]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [Fixed modification]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [sample volume]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [injection volume]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="24" ColumnHeader="Parameter [Number of injections]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [duration]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="35" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Quantification method]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Quantification method)"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [technical replicate]" Importance="3" Unit="None" ValidationFormat="Int"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Variable modification]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Variable modification)"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [Fixed modification]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Fixed modification)"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [sample volume]" Importance="2" Unit="None" ValidationFormat="UnitTerm microliter"/>
+      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [injection volume]" Importance="2" Unit="None" ValidationFormat="UnitTerm microliter"/>
+      <ColumnValidation ColumnAdress="24" ColumnHeader="Parameter [Number of injections]" Importance="3" Unit="None" ValidationFormat="Int"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [instrument model]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (instrument model)"/>
+      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [duration]" Importance="4" Unit="None" ValidationFormat="UnitTerm second"/>
+      <ColumnValidation ColumnAdress="35" ColumnHeader="Data File Name" Importance="5" Unit="None" ValidationFormat="Text"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89EE264C-FD73-40E5-AADB-5BE2719D1CC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D83185-B560-4073-988D-AD35DBD38EC6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/3ASY02_ProteomicsMassSpec/3ASY02_ProteomicsMassSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY02_ProteomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1902B4-C7E2-4E93-912E-91BB80BBA8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C167B-BA57-42F2-8338-C8503FBE1B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="161">
   <si>
     <t>Source Name</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Term Accession Number ()</t>
   </si>
   <si>
-    <t>Term Source REF (PRIDE:000045)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (PRIDE:000045)</t>
-  </si>
-  <si>
     <t>Parameter [Quantification method]</t>
   </si>
   <si>
@@ -152,12 +146,6 @@
   </si>
   <si>
     <t>Unit (#4)</t>
-  </si>
-  <si>
-    <t>Term Source REF (#4)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (#4)</t>
   </si>
   <si>
     <t>Parameter [duration]</t>
@@ -474,9 +462,6 @@
     <t>Peptide counting</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>AQUA</t>
   </si>
   <si>
@@ -531,7 +516,67 @@
     <t>MAT900XP Trap</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>Term Source REF ()2</t>
+  </si>
+  <si>
+    <t>Term Accession Number ()2</t>
+  </si>
+  <si>
+    <t>Term Source REF (PATO:0001309)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (PATO:0001309)</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOD_01650</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOD_01665</t>
+  </si>
+  <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_21565</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOD_00612</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOD_00670</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOD_00671</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOD_00588</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_21418</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOD_01874</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>count unit</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000010</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
@@ -689,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -730,13 +775,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
@@ -751,7 +799,7 @@
       <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
@@ -820,11 +868,11 @@
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{8B9EB072-33F4-4925-94A0-B6238A9F1D2E}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{445E8D63-E8B7-45E9-A342-3415BB9DCE17}" name="Parameter [Experiment type]"/>
-    <tableColumn id="4" xr3:uid="{34114AF4-BAE3-4169-AEAC-D4C5B2478E56}" name="Term Source REF (PRIDE:000045)"/>
-    <tableColumn id="5" xr3:uid="{54CDA124-BCA3-46C9-BC3E-79A87D998FCD}" name="Term Accession Number (PRIDE:000045)"/>
+    <tableColumn id="4" xr3:uid="{34114AF4-BAE3-4169-AEAC-D4C5B2478E56}" name="Term Source REF ()"/>
+    <tableColumn id="5" xr3:uid="{54CDA124-BCA3-46C9-BC3E-79A87D998FCD}" name="Term Accession Number ()"/>
     <tableColumn id="6" xr3:uid="{A9B1301E-632A-4650-8976-2DF7D4078F74}" name="Parameter [Quantification method]"/>
-    <tableColumn id="7" xr3:uid="{86F28706-2A55-4E1D-BF40-BB428F529A94}" name="Term Source REF ()"/>
-    <tableColumn id="8" xr3:uid="{A1B6CF78-F376-4646-B0CC-8346F169995B}" name="Term Accession Number ()"/>
+    <tableColumn id="7" xr3:uid="{86F28706-2A55-4E1D-BF40-BB428F529A94}" name="Term Source REF ()2"/>
+    <tableColumn id="8" xr3:uid="{A1B6CF78-F376-4646-B0CC-8346F169995B}" name="Term Accession Number ()2"/>
     <tableColumn id="9" xr3:uid="{FC4F14D4-40AB-46E2-8480-A1FA0000918C}" name="Parameter [technical replicate]"/>
     <tableColumn id="10" xr3:uid="{06DC8881-C4F2-468B-927F-444C84008C5F}" name="Term Source REF (MS:1001808)"/>
     <tableColumn id="11" xr3:uid="{3A63E937-8688-4534-AD63-0D0426CF24D2}" name="Term Accession Number (MS:1001808)"/>
@@ -842,18 +890,18 @@
     <tableColumn id="23" xr3:uid="{C4646081-5BEA-4168-AE8F-EC37194D2E23}" name="Unit (#2)" dataDxfId="14"/>
     <tableColumn id="24" xr3:uid="{C068DE1E-FC95-4705-9EC5-F0C4BDDF0542}" name="Term Source REF (#2)" dataDxfId="13"/>
     <tableColumn id="25" xr3:uid="{F4B5B5FB-7121-4CE0-977A-FCC07BEADF2E}" name="Term Accession Number (#2)" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{382D1084-6CBD-41CD-8DBC-229E3462D62E}" name="Parameter [Number of injections]" dataDxfId="0"/>
-    <tableColumn id="27" xr3:uid="{6C2D033D-E36D-4BDD-81C0-2B39FC2EA345}" name="Unit (#3)" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{1DB6FF94-FBD2-4CEB-BDE4-FA0EBEB28301}" name="Term Source REF (#3)" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{D0396A6F-CE83-4548-BFF5-69C1DA3AC392}" name="Term Accession Number (#3)" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{40B082B5-697D-459D-9CB7-F7B48A18E4BA}" name="Parameter [instrument model]" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{D88E9C82-D6D9-416E-856B-3C0ED6878092}" name="Term Source REF (MS:1000031)" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{E14D9563-A7B6-40A2-A296-977C598FAD03}" name="Term Accession Number (MS:1000031)" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{67766988-4076-4F34-A37A-2EF393A55DC1}" name="Parameter [duration]" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{02FFA839-AB2E-4256-AF70-683903B0E222}" name="Unit (#4)" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{1DE3AD7A-94C9-4D6D-A620-068505BBA80F}" name="Term Source REF (#4)" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{89607A56-7C4A-4A91-9B9D-E822F9611BED}" name="Term Accession Number (#4)" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{8EFFFFD9-A831-4B22-BB48-207F2316916A}" name="Data File Name" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{382D1084-6CBD-41CD-8DBC-229E3462D62E}" name="Parameter [Number of injections]" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{6C2D033D-E36D-4BDD-81C0-2B39FC2EA345}" name="Unit (#3)" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{1DB6FF94-FBD2-4CEB-BDE4-FA0EBEB28301}" name="Term Source REF (#3)" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{D0396A6F-CE83-4548-BFF5-69C1DA3AC392}" name="Term Accession Number (#3)" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{40B082B5-697D-459D-9CB7-F7B48A18E4BA}" name="Parameter [instrument model]" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{D88E9C82-D6D9-416E-856B-3C0ED6878092}" name="Term Source REF (MS:1000031)" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{E14D9563-A7B6-40A2-A296-977C598FAD03}" name="Term Accession Number (MS:1000031)" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{67766988-4076-4F34-A37A-2EF393A55DC1}" name="Parameter [duration]" dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{02FFA839-AB2E-4256-AF70-683903B0E222}" name="Unit (#4)" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{1DE3AD7A-94C9-4D6D-A620-068505BBA80F}" name="Term Source REF (PATO:0001309)" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{89607A56-7C4A-4A91-9B9D-E822F9611BED}" name="Term Accession Number (PATO:0001309)" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{8EFFFFD9-A831-4B22-BB48-207F2316916A}" name="Data File Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,7 +1181,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="632" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="630" row="2">
@@ -1171,16 +1219,16 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
@@ -1216,322 +1264,610 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" t="s">
+        <v>152</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="Y2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="AG2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ2" s="3"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" t="s">
+        <v>153</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="Y3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
+      <c r="AG3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="16">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" t="s">
+        <v>145</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="Y4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
+      <c r="AG4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ4" s="3"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" t="s">
+        <v>146</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="Y5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
+      <c r="AG5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ5" s="3"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="I6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" t="s">
+        <v>150</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" t="s">
+        <v>148</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="Y6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+      <c r="AG6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ6" s="3"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="I7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" t="s">
+        <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="L7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" t="s">
+        <v>154</v>
       </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="Y7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+      <c r="AG7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ7" s="3"/>
     </row>
   </sheetData>
@@ -1559,113 +1895,113 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1675,7 +2011,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1685,83 +2021,83 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B28" s="12"/>
     </row>
@@ -1795,40 +2131,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1836,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -1858,86 +2194,86 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -1945,85 +2281,85 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -2031,23 +2367,23 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2055,25 +2391,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -2081,57 +2417,57 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -2139,16 +2475,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
